--- a/app/quote_template.xlsx
+++ b/app/quote_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HQE\Documents\Python Projects\HQCPQ\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant Soper\Documents\VS Code\HQCPQ\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2259DB88-EB39-450D-A56F-8DABE9F8BF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEA103B-75DB-4448-AEEB-FF1B581757A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66EDD9A4-A5F9-4AD5-A6F5-46F36568800D}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="16440" xr2:uid="{66EDD9A4-A5F9-4AD5-A6F5-46F36568800D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/app/quote_template.xlsx
+++ b/app/quote_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant Soper\Documents\VS Code\HQCPQ\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HQE\Documents\HQCPQ\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEA103B-75DB-4448-AEEB-FF1B581757A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0911B1D5-24C7-49DA-A666-E91DEB366E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="16440" xr2:uid="{66EDD9A4-A5F9-4AD5-A6F5-46F36568800D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66EDD9A4-A5F9-4AD5-A6F5-46F36568800D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -215,6 +215,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -231,6 +237,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>96795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE5D4AD-DD78-4B08-D224-8CE93B9B7B75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267325" y="104775"/>
+          <a:ext cx="876300" cy="592095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,7 +586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,7 +597,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -547,7 +611,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -572,18 +636,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="D9" s="16"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -594,7 +660,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
@@ -614,7 +680,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
@@ -632,5 +698,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>